--- a/app/ContractorPortal_SystemMap.xlsx
+++ b/app/ContractorPortal_SystemMap.xlsx
@@ -457,7 +457,7 @@
     <col width="22" customWidth="1" min="2" max="2"/>
     <col width="15" customWidth="1" min="3" max="3"/>
     <col width="30" customWidth="1" min="4" max="4"/>
-    <col width="49" customWidth="1" min="5" max="5"/>
+    <col width="50" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -640,7 +640,7 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Admin, Manager, or Subcontractor</t>
+          <t>Admin, Manager, Contractor, Subcontractor, or User</t>
         </is>
       </c>
     </row>
@@ -3592,7 +3592,7 @@
     <col width="36" customWidth="1" min="2" max="2"/>
     <col width="35" customWidth="1" min="3" max="3"/>
     <col width="25" customWidth="1" min="4" max="4"/>
-    <col width="16" customWidth="1" min="5" max="5"/>
+    <col width="21" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -3745,12 +3745,12 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Subcontractor main dashboard</t>
+          <t>User/Subcontractor main dashboard</t>
         </is>
       </c>
       <c r="E7" t="inlineStr">
         <is>
-          <t>Subcontractor</t>
+          <t>Subcontractor, User</t>
         </is>
       </c>
     </row>
@@ -4064,7 +4064,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E23"/>
+  <dimension ref="A1:F24"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -4077,7 +4077,8 @@
     <col width="7" customWidth="1" min="2" max="2"/>
     <col width="9" customWidth="1" min="3" max="3"/>
     <col width="15" customWidth="1" min="4" max="4"/>
-    <col width="24" customWidth="1" min="5" max="5"/>
+    <col width="6" customWidth="1" min="5" max="5"/>
+    <col width="50" customWidth="1" min="6" max="6"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -4103,6 +4104,11 @@
       </c>
       <c r="E1" s="2" t="inlineStr">
         <is>
+          <t>User</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
           <t>Notes</t>
         </is>
       </c>
@@ -4130,6 +4136,11 @@
       </c>
       <c r="E2" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
           <t>Public access</t>
         </is>
       </c>
@@ -4157,6 +4168,11 @@
       </c>
       <c r="E3" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
           <t>Public access</t>
         </is>
       </c>
@@ -4184,6 +4200,11 @@
       </c>
       <c r="E4" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
           <t>Admin only</t>
         </is>
       </c>
@@ -4211,6 +4232,11 @@
       </c>
       <c r="E5" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
           <t>Managers and Admins</t>
         </is>
       </c>
@@ -4238,7 +4264,12 @@
       </c>
       <c r="E6" t="inlineStr">
         <is>
-          <t>Subcontractors only</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>Subcontractors and Users</t>
         </is>
       </c>
     </row>
@@ -4265,6 +4296,11 @@
       </c>
       <c r="E7" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
           <t>Full CRUD - Admin only</t>
         </is>
       </c>
@@ -4292,6 +4328,11 @@
       </c>
       <c r="E8" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
           <t>Admin only</t>
         </is>
       </c>
@@ -4319,6 +4360,11 @@
       </c>
       <c r="E9" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
           <t>All roles</t>
         </is>
       </c>
@@ -4346,6 +4392,11 @@
       </c>
       <c r="E10" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
           <t>Admin and Manager</t>
         </is>
       </c>
@@ -4373,6 +4424,11 @@
       </c>
       <c r="E11" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
           <t>Admin and Manager</t>
         </is>
       </c>
@@ -4400,6 +4456,11 @@
       </c>
       <c r="E12" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
           <t>Admin and Manager</t>
         </is>
       </c>
@@ -4427,6 +4488,11 @@
       </c>
       <c r="E13" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
           <t>All roles</t>
         </is>
       </c>
@@ -4454,6 +4520,11 @@
       </c>
       <c r="E14" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
           <t>All roles</t>
         </is>
       </c>
@@ -4481,6 +4552,11 @@
       </c>
       <c r="E15" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
           <t>All roles</t>
         </is>
       </c>
@@ -4508,6 +4584,11 @@
       </c>
       <c r="E16" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
           <t>All roles</t>
         </is>
       </c>
@@ -4535,6 +4616,11 @@
       </c>
       <c r="E17" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
           <t>Admin and Manager</t>
         </is>
       </c>
@@ -4562,7 +4648,12 @@
       </c>
       <c r="E18" t="inlineStr">
         <is>
-          <t>All roles</t>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>All roles (pricing hidden for User/Subcontractor)</t>
         </is>
       </c>
     </row>
@@ -4589,6 +4680,11 @@
       </c>
       <c r="E19" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
           <t>Admin only</t>
         </is>
       </c>
@@ -4616,6 +4712,11 @@
       </c>
       <c r="E20" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
           <t>Admin and Manager</t>
         </is>
       </c>
@@ -4643,6 +4744,11 @@
       </c>
       <c r="E21" t="inlineStr">
         <is>
+          <t>No</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
           <t>Admin only</t>
         </is>
       </c>
@@ -4670,6 +4776,11 @@
       </c>
       <c r="E22" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
           <t>All roles</t>
         </is>
       </c>
@@ -4697,7 +4808,44 @@
       </c>
       <c r="E23" t="inlineStr">
         <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
           <t>All roles</t>
+        </is>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" t="inlineStr">
+        <is>
+          <t>My Active Tickets</t>
+        </is>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Yes</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>All roles - Start/Finish tickets for properties</t>
         </is>
       </c>
     </row>
@@ -5222,7 +5370,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:E24"/>
+  <dimension ref="A1:E25"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
@@ -5234,7 +5382,7 @@
     <col width="23" customWidth="1" min="1" max="1"/>
     <col width="23" customWidth="1" min="2" max="2"/>
     <col width="30" customWidth="1" min="3" max="3"/>
-    <col width="15" customWidth="1" min="4" max="4"/>
+    <col width="20" customWidth="1" min="4" max="4"/>
     <col width="25" customWidth="1" min="5" max="5"/>
   </cols>
   <sheetData>
@@ -5391,7 +5539,7 @@
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>Subcontractor</t>
+          <t>Subcontractor/User</t>
         </is>
       </c>
       <c r="E6" t="inlineStr">
@@ -5813,17 +5961,17 @@
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>View Properties</t>
+          <t>My Active Tickets</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>PropertyInfo.html</t>
+          <t>MyTickets.html</t>
         </is>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>Subcontractor</t>
+          <t>Subcontractor/User</t>
         </is>
       </c>
       <c r="E22" t="inlineStr">
@@ -5840,17 +5988,17 @@
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>Submit Winter Log</t>
+          <t>View Properties</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>WinterOpsLog.html</t>
+          <t>PropertyInfo.html</t>
         </is>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>Subcontractor</t>
+          <t>Subcontractor/User</t>
         </is>
       </c>
       <c r="E23" t="inlineStr">
@@ -5867,20 +6015,47 @@
       </c>
       <c r="B24" t="inlineStr">
         <is>
+          <t>Submit Winter Log</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>WinterOpsLog.html</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>Subcontractor/User</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>Navigation link</t>
+        </is>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" t="inlineStr">
+        <is>
+          <t>UserDashboard.html</t>
+        </is>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
           <t>Submit Green Log</t>
         </is>
       </c>
-      <c r="C24" t="inlineStr">
+      <c r="C25" t="inlineStr">
         <is>
           <t>GreenOpsLog.html</t>
         </is>
       </c>
-      <c r="D24" t="inlineStr">
-        <is>
-          <t>Subcontractor</t>
-        </is>
-      </c>
-      <c r="E24" t="inlineStr">
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>Subcontractor/User</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
         <is>
           <t>Navigation link</t>
         </is>
